--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1061463333333333</v>
+        <v>0.08632499999999999</v>
       </c>
       <c r="H2">
-        <v>0.318439</v>
+        <v>0.258975</v>
       </c>
       <c r="I2">
-        <v>0.08164208687920579</v>
+        <v>0.04465318711422561</v>
       </c>
       <c r="J2">
-        <v>0.08164208687920578</v>
+        <v>0.0446531871142256</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>1.328341</v>
       </c>
       <c r="O2">
-        <v>0.8536830050153854</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="P2">
-        <v>0.8536830050153855</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="Q2">
-        <v>0.04699950885544444</v>
+        <v>0.038223012275</v>
       </c>
       <c r="R2">
-        <v>0.422995579699</v>
+        <v>0.3440071104749999</v>
       </c>
       <c r="S2">
-        <v>0.06969646206276757</v>
+        <v>0.03695608186926484</v>
       </c>
       <c r="T2">
-        <v>0.06969646206276757</v>
+        <v>0.03695608186926484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1061463333333333</v>
+        <v>0.08632499999999999</v>
       </c>
       <c r="H3">
-        <v>0.318439</v>
+        <v>0.258975</v>
       </c>
       <c r="I3">
-        <v>0.08164208687920579</v>
+        <v>0.04465318711422561</v>
       </c>
       <c r="J3">
-        <v>0.08164208687920578</v>
+        <v>0.0446531871142256</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.075832</v>
+        <v>0.092221</v>
       </c>
       <c r="N3">
-        <v>0.227496</v>
+        <v>0.276663</v>
       </c>
       <c r="O3">
-        <v>0.1462045279856453</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="P3">
-        <v>0.1462045279856453</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="Q3">
-        <v>0.008049288749333333</v>
+        <v>0.007960977824999998</v>
       </c>
       <c r="R3">
-        <v>0.07244359874399998</v>
+        <v>0.07164880042499999</v>
       </c>
       <c r="S3">
-        <v>0.01193644277593733</v>
+        <v>0.00769710524496076</v>
       </c>
       <c r="T3">
-        <v>0.01193644277593733</v>
+        <v>0.007697105244960758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1061463333333333</v>
+        <v>0.414545</v>
       </c>
       <c r="H4">
-        <v>0.318439</v>
+        <v>1.243635</v>
       </c>
       <c r="I4">
-        <v>0.08164208687920579</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="J4">
-        <v>0.08164208687920578</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>5.833333333333333E-05</v>
+        <v>0.4427803333333333</v>
       </c>
       <c r="N4">
-        <v>0.000175</v>
+        <v>1.328341</v>
       </c>
       <c r="O4">
-        <v>0.0001124669989691596</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="P4">
-        <v>0.0001124669989691596</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="Q4">
-        <v>6.191869444444444E-06</v>
+        <v>0.1835523732816667</v>
       </c>
       <c r="R4">
-        <v>5.572682499999999E-05</v>
+        <v>1.651971359535</v>
       </c>
       <c r="S4">
-        <v>9.182040500883678E-06</v>
+        <v>0.177468392221192</v>
       </c>
       <c r="T4">
-        <v>9.182040500883678E-06</v>
+        <v>0.177468392221192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>1.243635</v>
       </c>
       <c r="I5">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="J5">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4427803333333333</v>
+        <v>0.092221</v>
       </c>
       <c r="N5">
-        <v>1.328341</v>
+        <v>0.276663</v>
       </c>
       <c r="O5">
-        <v>0.8536830050153854</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="P5">
-        <v>0.8536830050153855</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="Q5">
-        <v>0.1835523732816667</v>
+        <v>0.038229754445</v>
       </c>
       <c r="R5">
-        <v>1.651971359535</v>
+        <v>0.344067790005</v>
       </c>
       <c r="S5">
-        <v>0.2721932916427635</v>
+        <v>0.03696260056498417</v>
       </c>
       <c r="T5">
-        <v>0.2721932916427635</v>
+        <v>0.03696260056498416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.414545</v>
+        <v>1.275124666666666</v>
       </c>
       <c r="H6">
-        <v>1.243635</v>
+        <v>3.825374</v>
       </c>
       <c r="I6">
-        <v>0.3188458596968999</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="J6">
-        <v>0.3188458596968999</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.075832</v>
+        <v>0.4427803333333333</v>
       </c>
       <c r="N6">
-        <v>0.227496</v>
+        <v>1.328341</v>
       </c>
       <c r="O6">
-        <v>0.1462045279856453</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="P6">
-        <v>0.1462045279856453</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="Q6">
-        <v>0.03143577644</v>
+        <v>0.5646001249482221</v>
       </c>
       <c r="R6">
-        <v>0.28292198796</v>
+        <v>5.081401124534</v>
       </c>
       <c r="S6">
-        <v>0.04661670841716255</v>
+        <v>0.5458860304066304</v>
       </c>
       <c r="T6">
-        <v>0.04661670841716255</v>
+        <v>0.5458860304066304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.414545</v>
+        <v>1.275124666666666</v>
       </c>
       <c r="H7">
-        <v>1.243635</v>
+        <v>3.825374</v>
       </c>
       <c r="I7">
-        <v>0.3188458596968999</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="J7">
-        <v>0.3188458596968999</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>5.833333333333333E-05</v>
+        <v>0.092221</v>
       </c>
       <c r="N7">
-        <v>0.000175</v>
+        <v>0.276663</v>
       </c>
       <c r="O7">
-        <v>0.0001124669989691596</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="P7">
-        <v>0.0001124669989691596</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="Q7">
-        <v>2.418179166666667E-05</v>
+        <v>0.1175932718846666</v>
       </c>
       <c r="R7">
-        <v>0.000217636125</v>
+        <v>1.058339446962</v>
       </c>
       <c r="S7">
-        <v>3.585963697385204E-05</v>
+        <v>0.1136955547034908</v>
       </c>
       <c r="T7">
-        <v>3.585963697385205E-05</v>
+        <v>0.1136955547034907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6332836666666667</v>
+        <v>0.157238</v>
       </c>
       <c r="H8">
-        <v>1.899851</v>
+        <v>0.471714</v>
       </c>
       <c r="I8">
-        <v>0.4870879521652373</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="J8">
-        <v>0.4870879521652373</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,27 +933,27 @@
         <v>1.328341</v>
       </c>
       <c r="O8">
-        <v>0.8536830050153854</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="P8">
-        <v>0.8536830050153855</v>
+        <v>0.8276247286611124</v>
       </c>
       <c r="Q8">
-        <v>0.2804055530212222</v>
+        <v>0.06962189405266667</v>
       </c>
       <c r="R8">
-        <v>2.523649977191</v>
+        <v>0.6265970464739999</v>
       </c>
       <c r="S8">
-        <v>0.4158187067112101</v>
+        <v>0.06731422416402509</v>
       </c>
       <c r="T8">
-        <v>0.4158187067112101</v>
+        <v>0.06731422416402509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6332836666666667</v>
+        <v>0.157238</v>
       </c>
       <c r="H9">
-        <v>1.899851</v>
+        <v>0.471714</v>
       </c>
       <c r="I9">
-        <v>0.4870879521652373</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="J9">
-        <v>0.4870879521652373</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.075832</v>
+        <v>0.092221</v>
       </c>
       <c r="N9">
-        <v>0.227496</v>
+        <v>0.276663</v>
       </c>
       <c r="O9">
-        <v>0.1462045279856453</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="P9">
-        <v>0.1462045279856453</v>
+        <v>0.1723752713388876</v>
       </c>
       <c r="Q9">
-        <v>0.04802316701066667</v>
+        <v>0.014500645598</v>
       </c>
       <c r="R9">
-        <v>0.432208503096</v>
+        <v>0.130505810382</v>
       </c>
       <c r="S9">
-        <v>0.07121446413381312</v>
+        <v>0.01402001082545195</v>
       </c>
       <c r="T9">
-        <v>0.0712144641338131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.6332836666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.899851</v>
-      </c>
-      <c r="I10">
-        <v>0.4870879521652373</v>
-      </c>
-      <c r="J10">
-        <v>0.4870879521652373</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>5.833333333333333E-05</v>
-      </c>
-      <c r="N10">
-        <v>0.000175</v>
-      </c>
-      <c r="O10">
-        <v>0.0001124669989691596</v>
-      </c>
-      <c r="P10">
-        <v>0.0001124669989691596</v>
-      </c>
-      <c r="Q10">
-        <v>3.694154722222222E-05</v>
-      </c>
-      <c r="R10">
-        <v>0.000332473925</v>
-      </c>
-      <c r="S10">
-        <v>5.478132021405781E-05</v>
-      </c>
-      <c r="T10">
-        <v>5.478132021405781E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.1461673333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.438502</v>
-      </c>
-      <c r="I11">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="J11">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.4427803333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.328341</v>
-      </c>
-      <c r="O11">
-        <v>0.8536830050153854</v>
-      </c>
-      <c r="P11">
-        <v>0.8536830050153855</v>
-      </c>
-      <c r="Q11">
-        <v>0.06472002057577778</v>
-      </c>
-      <c r="R11">
-        <v>0.582480185182</v>
-      </c>
-      <c r="S11">
-        <v>0.09597454459864435</v>
-      </c>
-      <c r="T11">
-        <v>0.09597454459864435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.1461673333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.438502</v>
-      </c>
-      <c r="I12">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="J12">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.075832</v>
-      </c>
-      <c r="N12">
-        <v>0.227496</v>
-      </c>
-      <c r="O12">
-        <v>0.1462045279856453</v>
-      </c>
-      <c r="P12">
-        <v>0.1462045279856453</v>
-      </c>
-      <c r="Q12">
-        <v>0.01108416122133333</v>
-      </c>
-      <c r="R12">
-        <v>0.09975745099199999</v>
-      </c>
-      <c r="S12">
-        <v>0.01643691265873235</v>
-      </c>
-      <c r="T12">
-        <v>0.01643691265873235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.1461673333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.438502</v>
-      </c>
-      <c r="I13">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="J13">
-        <v>0.1124241012586571</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>5.833333333333333E-05</v>
-      </c>
-      <c r="N13">
-        <v>0.000175</v>
-      </c>
-      <c r="O13">
-        <v>0.0001124669989691596</v>
-      </c>
-      <c r="P13">
-        <v>0.0001124669989691596</v>
-      </c>
-      <c r="Q13">
-        <v>8.526427777777777E-06</v>
-      </c>
-      <c r="R13">
-        <v>7.673785E-05</v>
-      </c>
-      <c r="S13">
-        <v>1.264400128036608E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.264400128036608E-05</v>
+        <v>0.01402001082545195</v>
       </c>
     </row>
   </sheetData>
